--- a/playEnemy_data.xlsx
+++ b/playEnemy_data.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krsoft\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krsoft\OneDrive\Desktop\Random Combination Defence - Great Man\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="7560" windowHeight="6735" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,7 +19,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <x:si>
+    <x:t>Test_Boss_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drop_dark_gold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enemy_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drop_gold</x:t>
+  </x:si>
   <x:si>
     <x:t>enemy_speed</x:t>
   </x:si>
@@ -27,34 +39,46 @@
     <x:t>enemy_hp</x:t>
   </x:si>
   <x:si>
-    <x:t>enemy_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drop_gold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drop_dark_gold</x:t>
-  </x:si>
-  <x:si>
     <x:t>int</x:t>
   </x:si>
   <x:si>
+    <x:t>Test_Boss_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_3</x:t>
+  </x:si>
+  <x:si>
     <x:t>float</x:t>
   </x:si>
   <x:si>
+    <x:t>Test_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_1</x:t>
+  </x:si>
+  <x:si>
     <x:t>string</x:t>
   </x:si>
   <x:si>
-    <x:t>Test_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_Boss_1</x:t>
+    <x:t>Test_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_8</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -148,7 +172,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -191,6 +215,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -201,6 +228,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -283,6 +311,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -317,6 +346,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -361,6 +391,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -404,6 +435,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -488,6 +520,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -508,6 +541,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -538,6 +572,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -903,10 +938,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:E6"/>
+  <x:dimension ref="A1:E15"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C11" activeCellId="0" sqref="C11:C11"/>
+      <x:selection activeCell="E14" activeCellId="0" sqref="A1:E14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -922,38 +957,38 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="E2" s="2" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E2" s="2" t="s">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="3">
         <x:v>1</x:v>
@@ -970,10 +1005,10 @@
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="3">
-        <x:v>2</x:v>
+        <x:v>1.5</x:v>
       </x:c>
       <x:c r="C4" s="3">
         <x:v>50</x:v>
@@ -987,10 +1022,10 @@
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="3">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="3">
         <x:v>75</x:v>
@@ -1004,7 +1039,7 @@
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="3">
         <x:v>0.5</x:v>
@@ -1016,11 +1051,154 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>2</x:v>
-      </x:c>
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="3">
+        <x:v>2.5</x:v>
+      </x:c>
+      <x:c r="C7" s="3">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D7" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="3">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="3">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D8" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B9" s="3">
+        <x:v>3.5</x:v>
+      </x:c>
+      <x:c r="C9" s="3">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D9" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B10" s="3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="3">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D10" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B11" s="3">
+        <x:v>4.5</x:v>
+      </x:c>
+      <x:c r="C11" s="3">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D11" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B12" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C12" s="3">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D12" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B13" s="3">
+        <x:v>5.5</x:v>
+      </x:c>
+      <x:c r="C13" s="3">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="D13" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C14" s="3">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="D14" s="3">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="4"/>
+      <x:c r="B15" s="4"/>
+      <x:c r="C15" s="4"/>
+      <x:c r="D15" s="4"/>
+      <x:c r="E15" s="4"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/playEnemy_data.xlsx
+++ b/playEnemy_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="5295" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,64 +21,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <x:si>
+    <x:t>drop_dark_gold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enemy_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_Boss_1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Test_Boss_2</x:t>
   </x:si>
   <x:si>
-    <x:t>drop_dark_gold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>enemy_name</x:t>
+    <x:t>Test_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>string</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enemy_speed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enemy_hp</x:t>
   </x:si>
   <x:si>
     <x:t>drop_gold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>enemy_speed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>enemy_hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_Boss_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>string</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test_8</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -941,7 +941,7 @@
   <x:dimension ref="A1:E15"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E14" activeCellId="0" sqref="A1:E14"/>
+      <x:selection activeCell="G5" activeCellId="0" sqref="G5:G5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -954,36 +954,36 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -991,10 +991,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="3">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="3">
-        <x:v>25</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="3">
         <x:v>1</x:v>
@@ -1008,10 +1008,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="3">
-        <x:v>1.5</x:v>
+        <x:v>5.5</x:v>
       </x:c>
       <x:c r="C4" s="3">
-        <x:v>50</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D4" s="3">
         <x:v>1</x:v>
@@ -1022,13 +1022,13 @@
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="3">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="3">
-        <x:v>75</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D5" s="3">
         <x:v>1</x:v>
@@ -1039,16 +1039,16 @@
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="3">
-        <x:v>0.5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C6" s="3">
-        <x:v>200</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D6" s="3">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E6" s="3">
         <x:v>1</x:v>
@@ -1056,13 +1056,13 @@
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B7" s="3">
-        <x:v>2.5</x:v>
+        <x:v>6.5</x:v>
       </x:c>
       <x:c r="C7" s="3">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D7" s="3">
         <x:v>1</x:v>
@@ -1073,13 +1073,13 @@
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B8" s="3">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C8" s="3">
-        <x:v>125</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D8" s="3">
         <x:v>1</x:v>
@@ -1090,13 +1090,13 @@
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="3">
-        <x:v>3.5</x:v>
+        <x:v>5.5</x:v>
       </x:c>
       <x:c r="C9" s="3">
-        <x:v>150</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D9" s="3">
         <x:v>1</x:v>
@@ -1107,13 +1107,13 @@
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="3">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C10" s="3">
-        <x:v>175</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D10" s="3">
         <x:v>1</x:v>
@@ -1124,13 +1124,13 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B11" s="3">
-        <x:v>4.5</x:v>
+        <x:v>6.5</x:v>
       </x:c>
       <x:c r="C11" s="3">
-        <x:v>200</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D11" s="3">
         <x:v>1</x:v>
@@ -1141,13 +1141,13 @@
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B12" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C12" s="3">
-        <x:v>225</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D12" s="3">
         <x:v>1</x:v>
@@ -1158,13 +1158,13 @@
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="3">
         <x:v>5.5</x:v>
       </x:c>
       <x:c r="C13" s="3">
-        <x:v>250</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D13" s="3">
         <x:v>1</x:v>
@@ -1175,16 +1175,16 @@
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B14" s="3">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="3">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D14" s="3">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>1</x:v>
@@ -1198,7 +1198,7 @@
       <x:c r="E15" s="4"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>